--- a/Pedro/Pasta1- Aula 04.xlsx
+++ b/Pedro/Pasta1- Aula 04.xlsx
@@ -29,6 +29,7 @@
   </sheets>
   <definedNames>
     <definedName name="feriados">DiaTrabalho!$A$6:$A$7</definedName>
+    <definedName name="feriadosexer">Exercício!$A$9:$A$11</definedName>
     <definedName name="feriadoss">DiatrabalhoTotal!$A$5:$A$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>=</t>
   </si>
@@ -142,26 +143,22 @@
     <t xml:space="preserve">Jornada dia </t>
   </si>
   <si>
-    <t>4 horas</t>
-  </si>
-  <si>
     <t>Reajuste</t>
   </si>
   <si>
     <t>Data Reajuste</t>
   </si>
   <si>
-    <t>Dias Trabalhados</t>
+    <t>01/01/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
-    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -222,16 +219,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -248,6 +246,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Data Inicial"/>
+    <tableColumn id="2" name="01/01/2019"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2665,27 +2674,30 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="1">
-        <v>43466</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2695,7 +2707,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -2703,41 +2715,60 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
       </c>
       <c r="B5" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1">
         <v>43556</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8">
-        <f>_xlfn.DAYS(B2,B1)</f>
-        <v>150</v>
+        <v>6</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43574</v>
+      </c>
+      <c r="D10" s="8">
+        <f>NETWORKDAYS(B1,EOMONTH(B1,2),feriadosexer)*(B3*B4)+ NETWORKDAYS(B6,EOMONTH(B6,1),feriadosexer)*(B4*(B3+B5))</f>
+        <v>25040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43586</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3204,7 +3235,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
